--- a/artfynd/A 7125-2023.xlsx
+++ b/artfynd/A 7125-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>93017011</v>
+        <v>108424267</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>668192.6820228165</v>
+        <v>668220.9406347397</v>
       </c>
       <c r="R2" t="n">
-        <v>6706215.596838974</v>
+        <v>6706703.990175959</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104502051</v>
+        <v>108424271</v>
       </c>
       <c r="B3" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Utmossarna, Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>667777.0084357379</v>
+        <v>668316.2860935072</v>
       </c>
       <c r="R3" t="n">
-        <v>6705639.49024437</v>
+        <v>6706760.290776655</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,19 +892,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108409864</v>
+        <v>108424273</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>667916.970684969</v>
+        <v>668325.2571759088</v>
       </c>
       <c r="R4" t="n">
-        <v>6706185.500321371</v>
+        <v>6706833.319068645</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1004,19 +1004,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108409865</v>
+        <v>108424275</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>668019.0148812898</v>
+        <v>668362.0782165673</v>
       </c>
       <c r="R5" t="n">
-        <v>6706300.404187184</v>
+        <v>6706860.717723515</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1116,19 +1116,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108415217</v>
+        <v>108424269</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1164,17 +1164,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>668022.3899518341</v>
+        <v>668256.7059479144</v>
       </c>
       <c r="R6" t="n">
-        <v>6705918.667866307</v>
+        <v>6706711.580985073</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108409863</v>
+        <v>108424234</v>
       </c>
       <c r="B7" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,38 +1252,46 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>667866.926955002</v>
+        <v>668216.8181625509</v>
       </c>
       <c r="R7" t="n">
-        <v>6706122.906379519</v>
+        <v>6706696.883001016</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1334,25 +1342,26 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108409861</v>
+        <v>93017011</v>
       </c>
       <c r="B8" t="n">
         <v>98520</v>
@@ -1392,13 +1401,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>667904.3645433345</v>
+        <v>668192.6820228165</v>
       </c>
       <c r="R8" t="n">
-        <v>6706073.263237373</v>
+        <v>6706215.596838974</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1422,7 +1431,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1441,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1452,22 +1461,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108415215</v>
+        <v>104502051</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1489,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Utmossarna, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>667828.6973412224</v>
+        <v>667777.0084357379</v>
       </c>
       <c r="R9" t="n">
-        <v>6705837.545477262</v>
+        <v>6705639.49024437</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,7 +1543,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1544,7 +1553,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1564,19 +1573,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108415213</v>
+        <v>108409864</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1612,17 +1621,17 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>667895.4154862339</v>
+        <v>667916.970684969</v>
       </c>
       <c r="R10" t="n">
-        <v>6705754.176168767</v>
+        <v>6706185.500321371</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1676,19 +1685,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108415216</v>
+        <v>108409865</v>
       </c>
       <c r="B11" t="n">
         <v>98520</v>
@@ -1724,17 +1733,17 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>667957.8018051866</v>
+        <v>668019.0148812898</v>
       </c>
       <c r="R11" t="n">
-        <v>6705902.823783731</v>
+        <v>6706300.404187184</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1788,19 +1797,19 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108409859</v>
+        <v>108415217</v>
       </c>
       <c r="B12" t="n">
         <v>98520</v>
@@ -1836,17 +1845,17 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>668020.5292980114</v>
+        <v>668022.3899518341</v>
       </c>
       <c r="R12" t="n">
-        <v>6705990.714396542</v>
+        <v>6705918.667866307</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1900,19 +1909,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108409860</v>
+        <v>108409863</v>
       </c>
       <c r="B13" t="n">
         <v>98520</v>
@@ -1952,10 +1961,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>667995.3756995556</v>
+        <v>667866.926955002</v>
       </c>
       <c r="R13" t="n">
-        <v>6706106.141902547</v>
+        <v>6706122.906379519</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2024,7 +2033,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108409866</v>
+        <v>108409861</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2064,10 +2073,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>668005.0717969275</v>
+        <v>667904.3645433345</v>
       </c>
       <c r="R14" t="n">
-        <v>6706430.1741502</v>
+        <v>6706073.263237373</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2136,7 +2145,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108415214</v>
+        <v>108415215</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2176,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>667814.2896270491</v>
+        <v>667828.6973412224</v>
       </c>
       <c r="R15" t="n">
-        <v>6705753.377855701</v>
+        <v>6705837.545477262</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,7 +2257,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108424257</v>
+        <v>108415213</v>
       </c>
       <c r="B16" t="n">
         <v>98520</v>
@@ -2284,17 +2293,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>668194.2749181653</v>
+        <v>667895.4154862339</v>
       </c>
       <c r="R16" t="n">
-        <v>6706074.870091319</v>
+        <v>6705754.176168767</v>
       </c>
       <c r="S16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2348,19 +2357,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108424267</v>
+        <v>108415216</v>
       </c>
       <c r="B17" t="n">
         <v>98520</v>
@@ -2396,17 +2405,17 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>668220.9406347397</v>
+        <v>667957.8018051866</v>
       </c>
       <c r="R17" t="n">
-        <v>6706703.990175959</v>
+        <v>6705902.823783731</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2460,19 +2469,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108424263</v>
+        <v>108409859</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2512,10 +2521,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>668187.3429377358</v>
+        <v>668020.5292980114</v>
       </c>
       <c r="R18" t="n">
-        <v>6706330.455436424</v>
+        <v>6705990.714396542</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2572,19 +2581,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108424261</v>
+        <v>108409860</v>
       </c>
       <c r="B19" t="n">
         <v>98520</v>
@@ -2624,10 +2633,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>668204.3094528762</v>
+        <v>667995.3756995556</v>
       </c>
       <c r="R19" t="n">
-        <v>6706167.722237788</v>
+        <v>6706106.141902547</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2684,19 +2693,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108424265</v>
+        <v>108409866</v>
       </c>
       <c r="B20" t="n">
         <v>98520</v>
@@ -2736,10 +2745,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>668059.7783727007</v>
+        <v>668005.0717969275</v>
       </c>
       <c r="R20" t="n">
-        <v>6706466.800528177</v>
+        <v>6706430.1741502</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2796,19 +2805,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108424271</v>
+        <v>108415214</v>
       </c>
       <c r="B21" t="n">
         <v>98520</v>
@@ -2844,17 +2853,17 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>668316.2860935072</v>
+        <v>667814.2896270491</v>
       </c>
       <c r="R21" t="n">
-        <v>6706760.290776655</v>
+        <v>6705753.377855701</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2908,19 +2917,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108424273</v>
+        <v>108424257</v>
       </c>
       <c r="B22" t="n">
         <v>98520</v>
@@ -2960,10 +2969,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>668325.2571759088</v>
+        <v>668194.2749181653</v>
       </c>
       <c r="R22" t="n">
-        <v>6706833.319068645</v>
+        <v>6706074.870091319</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3032,7 +3041,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108424275</v>
+        <v>108424263</v>
       </c>
       <c r="B23" t="n">
         <v>98520</v>
@@ -3072,10 +3081,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>668362.0782165673</v>
+        <v>668187.3429377358</v>
       </c>
       <c r="R23" t="n">
-        <v>6706860.717723515</v>
+        <v>6706330.455436424</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3144,7 +3153,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108424269</v>
+        <v>108424261</v>
       </c>
       <c r="B24" t="n">
         <v>98520</v>
@@ -3184,10 +3193,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>668256.7059479144</v>
+        <v>668204.3094528762</v>
       </c>
       <c r="R24" t="n">
-        <v>6706711.580985073</v>
+        <v>6706167.722237788</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3256,7 +3265,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108424259</v>
+        <v>108424265</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3296,10 +3305,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>668190.3691114081</v>
+        <v>668059.7783727007</v>
       </c>
       <c r="R25" t="n">
-        <v>6706169.544405418</v>
+        <v>6706466.800528177</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3368,10 +3377,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108424234</v>
+        <v>108424259</v>
       </c>
       <c r="B26" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3380,46 +3389,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>668216.8181625509</v>
+        <v>668190.3691114081</v>
       </c>
       <c r="R26" t="n">
-        <v>6706696.883001016</v>
+        <v>6706169.544405418</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3470,7 +3471,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 7125-2023.xlsx
+++ b/artfynd/A 7125-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>108424267</v>
+        <v>93017011</v>
       </c>
       <c r="B2" t="n">
         <v>98520</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>668220.9406347397</v>
+        <v>668192.6820228165</v>
       </c>
       <c r="R2" t="n">
-        <v>6706703.990175959</v>
+        <v>6706215.596838974</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Ingemar Södergren</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108424271</v>
+        <v>104502051</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>95519</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>221945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>Utmossarna, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>668316.2860935072</v>
+        <v>667777.0084357379</v>
       </c>
       <c r="R3" t="n">
-        <v>6706760.290776655</v>
+        <v>6705639.49024437</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-04-23</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,19 +892,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Patrick Fritzson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108424273</v>
+        <v>108409864</v>
       </c>
       <c r="B4" t="n">
         <v>98520</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>668325.2571759088</v>
+        <v>667916.970684969</v>
       </c>
       <c r="R4" t="n">
-        <v>6706833.319068645</v>
+        <v>6706185.500321371</v>
       </c>
       <c r="S4" t="n">
         <v>15</v>
@@ -1004,19 +1004,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108424275</v>
+        <v>108409865</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>668362.0782165673</v>
+        <v>668019.0148812898</v>
       </c>
       <c r="R5" t="n">
-        <v>6706860.717723515</v>
+        <v>6706300.404187184</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1116,19 +1116,19 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108424269</v>
+        <v>108415217</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1164,17 +1164,17 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>668256.7059479144</v>
+        <v>668022.3899518341</v>
       </c>
       <c r="R6" t="n">
-        <v>6706711.580985073</v>
+        <v>6705918.667866307</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1228,22 +1228,22 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108424234</v>
+        <v>108409863</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>98520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,46 +1252,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>668216.8181625509</v>
+        <v>667866.926955002</v>
       </c>
       <c r="R7" t="n">
-        <v>6706696.883001016</v>
+        <v>6706122.906379519</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1342,26 +1334,25 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ivar Anderberg</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93017011</v>
+        <v>108409861</v>
       </c>
       <c r="B8" t="n">
         <v>98520</v>
@@ -1401,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>668192.6820228165</v>
+        <v>667904.3645433345</v>
       </c>
       <c r="R8" t="n">
-        <v>6706215.596838974</v>
+        <v>6706073.263237373</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1431,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1441,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1461,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ingemar Södergren</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104502051</v>
+        <v>108415215</v>
       </c>
       <c r="B9" t="n">
-        <v>95519</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,34 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Utmossarna, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>667777.0084357379</v>
+        <v>667828.6973412224</v>
       </c>
       <c r="R9" t="n">
-        <v>6705639.49024437</v>
+        <v>6705837.545477262</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1543,7 +1534,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1553,7 +1544,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-04-23</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1573,19 +1564,19 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Patrick Fritzson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108409864</v>
+        <v>108415213</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1621,17 +1612,17 @@
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>667916.970684969</v>
+        <v>667895.4154862339</v>
       </c>
       <c r="R10" t="n">
-        <v>6706185.500321371</v>
+        <v>6705754.176168767</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1685,19 +1676,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108409865</v>
+        <v>108415216</v>
       </c>
       <c r="B11" t="n">
         <v>98520</v>
@@ -1733,17 +1724,17 @@
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Skaten, Upl</t>
+          <t>..., Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>668019.0148812898</v>
+        <v>667957.8018051866</v>
       </c>
       <c r="R11" t="n">
-        <v>6706300.404187184</v>
+        <v>6705902.823783731</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1797,19 +1788,19 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108415217</v>
+        <v>108409859</v>
       </c>
       <c r="B12" t="n">
         <v>98520</v>
@@ -1845,17 +1836,17 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>668022.3899518341</v>
+        <v>668020.5292980114</v>
       </c>
       <c r="R12" t="n">
-        <v>6705918.667866307</v>
+        <v>6705990.714396542</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1909,19 +1900,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Isac Carlsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108409863</v>
+        <v>108409860</v>
       </c>
       <c r="B13" t="n">
         <v>98520</v>
@@ -1961,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>667866.926955002</v>
+        <v>667995.3756995556</v>
       </c>
       <c r="R13" t="n">
-        <v>6706122.906379519</v>
+        <v>6706106.141902547</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2033,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108409861</v>
+        <v>108409866</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2073,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>667904.3645433345</v>
+        <v>668005.0717969275</v>
       </c>
       <c r="R14" t="n">
-        <v>6706073.263237373</v>
+        <v>6706430.1741502</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2145,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>108415215</v>
+        <v>108415214</v>
       </c>
       <c r="B15" t="n">
         <v>98520</v>
@@ -2185,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>667828.6973412224</v>
+        <v>667814.2896270491</v>
       </c>
       <c r="R15" t="n">
-        <v>6705837.545477262</v>
+        <v>6705753.377855701</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2257,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>108415213</v>
+        <v>108424257</v>
       </c>
       <c r="B16" t="n">
         <v>98520</v>
@@ -2293,17 +2284,17 @@
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>667895.4154862339</v>
+        <v>668194.2749181653</v>
       </c>
       <c r="R16" t="n">
-        <v>6705754.176168767</v>
+        <v>6706074.870091319</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2357,19 +2348,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>108415216</v>
+        <v>108424267</v>
       </c>
       <c r="B17" t="n">
         <v>98520</v>
@@ -2405,17 +2396,17 @@
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>667957.8018051866</v>
+        <v>668220.9406347397</v>
       </c>
       <c r="R17" t="n">
-        <v>6705902.823783731</v>
+        <v>6706703.990175959</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2469,19 +2460,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108409859</v>
+        <v>108424263</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2521,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>668020.5292980114</v>
+        <v>668187.3429377358</v>
       </c>
       <c r="R18" t="n">
-        <v>6705990.714396542</v>
+        <v>6706330.455436424</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2581,19 +2572,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108409860</v>
+        <v>108424261</v>
       </c>
       <c r="B19" t="n">
         <v>98520</v>
@@ -2633,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>667995.3756995556</v>
+        <v>668204.3094528762</v>
       </c>
       <c r="R19" t="n">
-        <v>6706106.141902547</v>
+        <v>6706167.722237788</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2693,19 +2684,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>108409866</v>
+        <v>108424265</v>
       </c>
       <c r="B20" t="n">
         <v>98520</v>
@@ -2745,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>668005.0717969275</v>
+        <v>668059.7783727007</v>
       </c>
       <c r="R20" t="n">
-        <v>6706430.1741502</v>
+        <v>6706466.800528177</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2805,19 +2796,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Isac Carlsson</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>108415214</v>
+        <v>108424271</v>
       </c>
       <c r="B21" t="n">
         <v>98520</v>
@@ -2853,17 +2844,17 @@
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>..., Upl</t>
+          <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>667814.2896270491</v>
+        <v>668316.2860935072</v>
       </c>
       <c r="R21" t="n">
-        <v>6705753.377855701</v>
+        <v>6706760.290776655</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2917,19 +2908,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Ivar Anderberg</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>108424257</v>
+        <v>108424273</v>
       </c>
       <c r="B22" t="n">
         <v>98520</v>
@@ -2969,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>668194.2749181653</v>
+        <v>668325.2571759088</v>
       </c>
       <c r="R22" t="n">
-        <v>6706074.870091319</v>
+        <v>6706833.319068645</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3041,7 +3032,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>108424263</v>
+        <v>108424275</v>
       </c>
       <c r="B23" t="n">
         <v>98520</v>
@@ -3081,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>668187.3429377358</v>
+        <v>668362.0782165673</v>
       </c>
       <c r="R23" t="n">
-        <v>6706330.455436424</v>
+        <v>6706860.717723515</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3153,7 +3144,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>108424261</v>
+        <v>108424269</v>
       </c>
       <c r="B24" t="n">
         <v>98520</v>
@@ -3193,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>668204.3094528762</v>
+        <v>668256.7059479144</v>
       </c>
       <c r="R24" t="n">
-        <v>6706167.722237788</v>
+        <v>6706711.580985073</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3265,7 +3256,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>108424265</v>
+        <v>108424259</v>
       </c>
       <c r="B25" t="n">
         <v>98520</v>
@@ -3305,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>668059.7783727007</v>
+        <v>668190.3691114081</v>
       </c>
       <c r="R25" t="n">
-        <v>6706466.800528177</v>
+        <v>6706169.544405418</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3377,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>108424259</v>
+        <v>108424234</v>
       </c>
       <c r="B26" t="n">
-        <v>98520</v>
+        <v>96334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3389,38 +3380,46 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Skaten, Upl</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>668190.3691114081</v>
+        <v>668216.8181625509</v>
       </c>
       <c r="R26" t="n">
-        <v>6706169.544405418</v>
+        <v>6706696.883001016</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3471,6 +3470,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
